--- a/data/partbform.xlsx
+++ b/data/partbform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B625D4E-3976-6049-9E0F-0586378675BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B768FF91-15C2-C442-829A-4F4D30E177B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{69605808-4B9F-E94F-90E0-CEBE927408EB}"/>
   </bookViews>
@@ -38,40 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Glucose concentration (mM)</t>
+    <t>glucose</t>
   </si>
   <si>
-    <r>
-      <t>Growth rate (h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>growthrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,14 +64,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -190,7 +159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,12 +479,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
